--- a/designdoc/요구분석.xlsx
+++ b/designdoc/요구분석.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\HKB_N_Healing\designdoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4D07B0-F717-44A2-98E8-C382E4A610C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA242203-B60E-49C3-AAE9-BC805CD09821}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="10980" xr2:uid="{CA758130-9F3E-4A2E-975D-3F179B669059}"/>
+    <workbookView xWindow="5628" yWindow="0" windowWidth="12960" windowHeight="12024" xr2:uid="{CA758130-9F3E-4A2E-975D-3F179B669059}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,11 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>입력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>영수증입력</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -48,10 +44,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>입력데이터조회</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -60,10 +52,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>-폼자동완성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -77,6 +65,22 @@
   </si>
   <si>
     <t>폼자동완성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>U수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D삭제</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -459,50 +463,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7439E65D-CB13-428E-9D58-A7EBFDF884D9}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -514,22 +518,27 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
